--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -5409,16 +5409,16 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>94944</v>
+        <v>94943</v>
       </c>
       <c r="C59">
-        <v>52772</v>
+        <v>52771</v>
       </c>
       <c r="D59">
         <v>14468</v>
       </c>
       <c r="E59">
-        <v>16829</v>
+        <v>16828</v>
       </c>
       <c r="F59">
         <v>21475</v>
@@ -5433,13 +5433,13 @@
         <v>7808</v>
       </c>
       <c r="J59">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="K59">
         <v>2083</v>
       </c>
       <c r="L59">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="M59">
         <v>1480</v>

--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -5409,7 +5409,7 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>94943</v>
+        <v>94993</v>
       </c>
       <c r="C59">
         <v>52771</v>
@@ -5478,10 +5478,10 @@
         <v>2164</v>
       </c>
       <c r="Y59">
-        <v>42173</v>
+        <v>42223</v>
       </c>
       <c r="Z59">
-        <v>22099</v>
+        <v>22149</v>
       </c>
       <c r="AA59">
         <v>20074</v>

--- a/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/Derivados suscripciones por contraparte 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5487,6 +5490,89 @@
         <v>20074</v>
       </c>
     </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>100593</v>
+      </c>
+      <c r="C60">
+        <v>51006</v>
+      </c>
+      <c r="D60">
+        <v>13100</v>
+      </c>
+      <c r="E60">
+        <v>14720</v>
+      </c>
+      <c r="F60">
+        <v>23186</v>
+      </c>
+      <c r="G60">
+        <v>13227</v>
+      </c>
+      <c r="H60">
+        <v>6760</v>
+      </c>
+      <c r="I60">
+        <v>6466</v>
+      </c>
+      <c r="J60">
+        <v>7122</v>
+      </c>
+      <c r="K60">
+        <v>2229</v>
+      </c>
+      <c r="L60">
+        <v>4894</v>
+      </c>
+      <c r="M60">
+        <v>1628</v>
+      </c>
+      <c r="N60">
+        <v>1103</v>
+      </c>
+      <c r="O60">
+        <v>525</v>
+      </c>
+      <c r="P60">
+        <v>1367</v>
+      </c>
+      <c r="Q60">
+        <v>685</v>
+      </c>
+      <c r="R60">
+        <v>682</v>
+      </c>
+      <c r="S60">
+        <v>1924</v>
+      </c>
+      <c r="T60">
+        <v>1184</v>
+      </c>
+      <c r="U60">
+        <v>740</v>
+      </c>
+      <c r="V60">
+        <v>2552</v>
+      </c>
+      <c r="W60">
+        <v>1139</v>
+      </c>
+      <c r="X60">
+        <v>1413</v>
+      </c>
+      <c r="Y60">
+        <v>49587</v>
+      </c>
+      <c r="Z60">
+        <v>24644</v>
+      </c>
+      <c r="AA60">
+        <v>24943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
